--- a/sampleset_15.xlsx
+++ b/sampleset_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R252"/>
+  <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
         <v>-801.5</v>
       </c>
       <c r="R2" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
@@ -634,7 +634,7 @@
         <v>-800.5</v>
       </c>
       <c r="R3" t="n">
-        <v>273</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +690,7 @@
         <v>-799.5</v>
       </c>
       <c r="R4" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>-798.5</v>
       </c>
       <c r="R5" t="n">
-        <v>187</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
@@ -802,7 +802,7 @@
         <v>-797.5</v>
       </c>
       <c r="R6" t="n">
-        <v>278</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7">
@@ -858,7 +858,7 @@
         <v>-796.5</v>
       </c>
       <c r="R7" t="n">
-        <v>328</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +914,7 @@
         <v>-795.5</v>
       </c>
       <c r="R8" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +970,7 @@
         <v>-794.5</v>
       </c>
       <c r="R9" t="n">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -1026,7 +1026,7 @@
         <v>-793.5</v>
       </c>
       <c r="R10" t="n">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -1082,7 +1082,7 @@
         <v>-792.5</v>
       </c>
       <c r="R11" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>-791.5</v>
       </c>
       <c r="R12" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1194,7 +1194,7 @@
         <v>-790.5</v>
       </c>
       <c r="R13" t="n">
-        <v>162</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1250,7 @@
         <v>-789.5</v>
       </c>
       <c r="R14" t="n">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1306,7 +1306,7 @@
         <v>-788.5</v>
       </c>
       <c r="R15" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="n">
         <v>-1</v>
@@ -1362,7 +1362,7 @@
         <v>-787.5</v>
       </c>
       <c r="R16" t="n">
-        <v>138</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1385,7 +1385,7 @@
         <v>-1</v>
       </c>
       <c r="G17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>-1</v>
@@ -1418,7 +1418,7 @@
         <v>-787.5</v>
       </c>
       <c r="R17" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1474,7 +1474,7 @@
         <v>-782.5</v>
       </c>
       <c r="R18" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1530,7 +1530,7 @@
         <v>-781.5</v>
       </c>
       <c r="R19" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1541,16 +1541,16 @@
         <v>-1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G20" t="n">
         <v>-1</v>
@@ -1586,7 +1586,7 @@
         <v>-780.5</v>
       </c>
       <c r="R20" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1597,16 +1597,16 @@
         <v>-1</v>
       </c>
       <c r="C21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>-1</v>
@@ -1642,7 +1642,7 @@
         <v>-780.5</v>
       </c>
       <c r="R21" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -1698,7 +1698,7 @@
         <v>-779.5</v>
       </c>
       <c r="R22" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -1754,7 +1754,7 @@
         <v>-779.5</v>
       </c>
       <c r="R23" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -1762,16 +1762,16 @@
         <v>-1</v>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>-1</v>
@@ -1810,7 +1810,7 @@
         <v>-778.5</v>
       </c>
       <c r="R24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1821,16 +1821,16 @@
         <v>-1</v>
       </c>
       <c r="C25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>-1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G25" t="n">
         <v>-1</v>
@@ -1857,7 +1857,7 @@
         <v>-1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1866,7 +1866,7 @@
         <v>-778.5</v>
       </c>
       <c r="R25" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>-1</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="n">
         <v>-1</v>
@@ -1883,10 +1883,10 @@
         <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>-1</v>
@@ -1913,7 +1913,7 @@
         <v>-1</v>
       </c>
       <c r="O26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>-778.5</v>
       </c>
       <c r="R26" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
         <v>-777.5</v>
       </c>
       <c r="R27" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
@@ -1986,19 +1986,19 @@
         <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>-1</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G28" t="n">
         <v>-1</v>
@@ -2022,7 +2022,7 @@
         <v>-1</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O28" t="n">
         <v>-1</v>
@@ -2034,7 +2034,7 @@
         <v>-777.5</v>
       </c>
       <c r="R28" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -2042,19 +2042,19 @@
         <v>-1</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C29" t="n">
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="n">
         <v>-1</v>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>-1</v>
@@ -2078,7 +2078,7 @@
         <v>-1</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>-1</v>
@@ -2090,7 +2090,7 @@
         <v>-777.5</v>
       </c>
       <c r="R29" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -2107,10 +2107,10 @@
         <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G30" t="n">
         <v>-1</v>
@@ -2131,10 +2131,10 @@
         <v>-1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>-1</v>
@@ -2146,7 +2146,7 @@
         <v>-776.5</v>
       </c>
       <c r="R30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
@@ -2202,7 +2202,7 @@
         <v>-776.5</v>
       </c>
       <c r="R31" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -2258,7 +2258,7 @@
         <v>-776.5</v>
       </c>
       <c r="R32" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
@@ -2275,10 +2275,10 @@
         <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>-1</v>
@@ -2299,10 +2299,10 @@
         <v>-1</v>
       </c>
       <c r="M33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O33" t="n">
         <v>-1</v>
@@ -2314,7 +2314,7 @@
         <v>-776.5</v>
       </c>
       <c r="R33" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -2325,10 +2325,10 @@
         <v>-1</v>
       </c>
       <c r="C34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="n">
         <v>-1</v>
@@ -2358,10 +2358,10 @@
         <v>-1</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>-775.5</v>
       </c>
       <c r="R34" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35">
@@ -2426,7 +2426,7 @@
         <v>-775.5</v>
       </c>
       <c r="R35" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -2437,10 +2437,10 @@
         <v>-1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>-1</v>
@@ -2470,10 +2470,10 @@
         <v>-1</v>
       </c>
       <c r="N36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>-775.5</v>
       </c>
       <c r="R36" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -2538,7 +2538,7 @@
         <v>-775.5</v>
       </c>
       <c r="R37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2549,13 +2549,13 @@
         <v>-1</v>
       </c>
       <c r="C38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F38" t="n">
         <v>-1</v>
@@ -2576,13 +2576,13 @@
         <v>-1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M38" t="n">
         <v>-1</v>
       </c>
       <c r="N38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>-1</v>
@@ -2594,7 +2594,7 @@
         <v>-774.5</v>
       </c>
       <c r="R38" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -2602,13 +2602,13 @@
         <v>-1</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C39" t="n">
         <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>-1</v>
@@ -2635,13 +2635,13 @@
         <v>-1</v>
       </c>
       <c r="M39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>-1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>-774.5</v>
       </c>
       <c r="R39" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -2706,7 +2706,7 @@
         <v>-774.5</v>
       </c>
       <c r="R40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -2720,10 +2720,10 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>-1</v>
@@ -2744,10 +2744,10 @@
         <v>-1</v>
       </c>
       <c r="L41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N41" t="n">
         <v>-1</v>
@@ -2762,7 +2762,7 @@
         <v>-774.5</v>
       </c>
       <c r="R41" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2770,10 +2770,10 @@
         <v>-1</v>
       </c>
       <c r="B42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D42" t="n">
         <v>-1</v>
@@ -2806,10 +2806,10 @@
         <v>-1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>-774.5</v>
       </c>
       <c r="R42" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
@@ -2826,7 +2826,7 @@
         <v>-1</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C43" t="n">
         <v>-1</v>
@@ -2835,7 +2835,7 @@
         <v>-1</v>
       </c>
       <c r="E43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>-1</v>
@@ -2862,19 +2862,19 @@
         <v>-1</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q43" t="n">
-        <v>-773.5</v>
+        <v>-777.5</v>
       </c>
       <c r="R43" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -2912,7 +2912,7 @@
         <v>-1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M44" t="n">
         <v>-1</v>
@@ -2921,16 +2921,16 @@
         <v>-1</v>
       </c>
       <c r="O44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q44" t="n">
-        <v>-773.5</v>
+        <v>-776.5</v>
       </c>
       <c r="R44" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
@@ -2947,10 +2947,10 @@
         <v>-1</v>
       </c>
       <c r="E45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G45" t="n">
         <v>-1</v>
@@ -2962,10 +2962,10 @@
         <v>-1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>-1</v>
@@ -2986,7 +2986,7 @@
         <v>-773.5</v>
       </c>
       <c r="R45" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -3042,7 +3042,7 @@
         <v>-773.5</v>
       </c>
       <c r="R46" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -3056,10 +3056,10 @@
         <v>-1</v>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F47" t="n">
         <v>-1</v>
@@ -3077,10 +3077,10 @@
         <v>-1</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>-1</v>
@@ -3098,7 +3098,7 @@
         <v>-773.5</v>
       </c>
       <c r="R47" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -3106,13 +3106,13 @@
         <v>-1</v>
       </c>
       <c r="B48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>-1</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E48" t="n">
         <v>-1</v>
@@ -3133,7 +3133,7 @@
         <v>-1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L48" t="n">
         <v>-1</v>
@@ -3142,19 +3142,19 @@
         <v>-1</v>
       </c>
       <c r="N48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>-1</v>
       </c>
       <c r="P48" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>-772.5</v>
+        <v>-773.5</v>
       </c>
       <c r="R48" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -3168,13 +3168,13 @@
         <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E49" t="n">
         <v>-1</v>
       </c>
       <c r="F49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>-1</v>
@@ -3204,13 +3204,13 @@
         <v>-1</v>
       </c>
       <c r="P49" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>-771.5</v>
+        <v>-773.5</v>
       </c>
       <c r="R49" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
@@ -3218,7 +3218,7 @@
         <v>-1</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C50" t="n">
         <v>-1</v>
@@ -3227,7 +3227,7 @@
         <v>-1</v>
       </c>
       <c r="E50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>-1</v>
@@ -3251,22 +3251,22 @@
         <v>-1</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>-1</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q50" t="n">
-        <v>-772.5</v>
+        <v>-776.5</v>
       </c>
       <c r="R50" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -3277,10 +3277,10 @@
         <v>-1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>-1</v>
@@ -3304,25 +3304,25 @@
         <v>-1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M51" t="n">
         <v>-1</v>
       </c>
       <c r="N51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
         <v>-1</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q51" t="n">
-        <v>-772.5</v>
+        <v>-775.5</v>
       </c>
       <c r="R51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
@@ -3378,7 +3378,7 @@
         <v>-772.5</v>
       </c>
       <c r="R52" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -3389,13 +3389,13 @@
         <v>-1</v>
       </c>
       <c r="C53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>-1</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F53" t="n">
         <v>-1</v>
@@ -3410,13 +3410,13 @@
         <v>-1</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K53" t="n">
         <v>-1</v>
       </c>
       <c r="L53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>-1</v>
@@ -3434,7 +3434,7 @@
         <v>-772.5</v>
       </c>
       <c r="R53" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3448,13 +3448,13 @@
         <v>-1</v>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>-1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G54" t="n">
         <v>-1</v>
@@ -3463,13 +3463,13 @@
         <v>-1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="n">
         <v>-1</v>
       </c>
       <c r="K54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>-1</v>
@@ -3490,7 +3490,7 @@
         <v>-772.5</v>
       </c>
       <c r="R54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -3504,10 +3504,10 @@
         <v>-1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>-1</v>
@@ -3522,10 +3522,10 @@
         <v>-1</v>
       </c>
       <c r="J55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L55" t="n">
         <v>-1</v>
@@ -3546,7 +3546,7 @@
         <v>-772.5</v>
       </c>
       <c r="R55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -3572,10 +3572,10 @@
         <v>-1</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>-1</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>-771.5</v>
+        <v>-772.5</v>
       </c>
       <c r="R56" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -3610,10 +3610,10 @@
         <v>-1</v>
       </c>
       <c r="B57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D57" t="n">
         <v>-1</v>
@@ -3637,13 +3637,13 @@
         <v>-1</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L57" t="n">
         <v>-1</v>
       </c>
       <c r="M57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>-1</v>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>-771.5</v>
+        <v>-772.5</v>
       </c>
       <c r="R57" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58">
@@ -3669,7 +3669,7 @@
         <v>-1</v>
       </c>
       <c r="C58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
         <v>-1</v>
@@ -3693,19 +3693,19 @@
         <v>-1</v>
       </c>
       <c r="K58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>-1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N58" t="n">
         <v>-1</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>-771.5</v>
       </c>
       <c r="R58" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -3728,25 +3728,25 @@
         <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E59" t="n">
         <v>-1</v>
       </c>
       <c r="F59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>-1</v>
       </c>
       <c r="H59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>-1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K59" t="n">
         <v>-1</v>
@@ -3770,7 +3770,7 @@
         <v>-771.5</v>
       </c>
       <c r="R59" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
@@ -3826,7 +3826,7 @@
         <v>-771.5</v>
       </c>
       <c r="R60" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -3882,7 +3882,7 @@
         <v>-771.5</v>
       </c>
       <c r="R61" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3890,13 +3890,13 @@
         <v>-1</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C62" t="n">
         <v>-1</v>
       </c>
       <c r="D62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>-1</v>
@@ -3914,10 +3914,10 @@
         <v>-1</v>
       </c>
       <c r="J62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L62" t="n">
         <v>-1</v>
@@ -3935,15 +3935,15 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>-770.5</v>
+        <v>-771.5</v>
       </c>
       <c r="R62" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
@@ -3958,7 +3958,7 @@
         <v>-1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G63" t="n">
         <v>-1</v>
@@ -3979,22 +3979,22 @@
         <v>-1</v>
       </c>
       <c r="M63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>-1</v>
       </c>
       <c r="O63" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>-770.5</v>
+        <v>-771.5</v>
       </c>
       <c r="R63" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64">
@@ -4008,10 +4008,10 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>-1</v>
@@ -4020,10 +4020,10 @@
         <v>-1</v>
       </c>
       <c r="H64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J64" t="n">
         <v>-1</v>
@@ -4050,7 +4050,7 @@
         <v>-770.5</v>
       </c>
       <c r="R64" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -4064,10 +4064,10 @@
         <v>-1</v>
       </c>
       <c r="D65" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F65" t="n">
         <v>-1</v>
@@ -4076,10 +4076,10 @@
         <v>-1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I65" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>-1</v>
@@ -4106,7 +4106,7 @@
         <v>-770.5</v>
       </c>
       <c r="R65" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -4117,7 +4117,7 @@
         <v>-1</v>
       </c>
       <c r="C66" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
         <v>-1</v>
@@ -4138,13 +4138,13 @@
         <v>-1</v>
       </c>
       <c r="J66" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>-1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M66" t="n">
         <v>-1</v>
@@ -4153,7 +4153,7 @@
         <v>-1</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>-770.5</v>
       </c>
       <c r="R66" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -4218,18 +4218,18 @@
         <v>-770.5</v>
       </c>
       <c r="R67" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B68" t="n">
         <v>-1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" t="n">
         <v>-1</v>
@@ -4238,7 +4238,7 @@
         <v>-1</v>
       </c>
       <c r="F68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>-1</v>
@@ -4250,7 +4250,7 @@
         <v>-1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K68" t="n">
         <v>-1</v>
@@ -4274,7 +4274,7 @@
         <v>-770.5</v>
       </c>
       <c r="R68" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -4309,10 +4309,10 @@
         <v>-1</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>-1</v>
@@ -4324,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>-769.5</v>
+        <v>-770.5</v>
       </c>
       <c r="R69" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -4338,7 +4338,7 @@
         <v>-1</v>
       </c>
       <c r="B70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
         <v>-1</v>
@@ -4362,10 +4362,10 @@
         <v>-1</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>-1</v>
@@ -4377,16 +4377,16 @@
         <v>-1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P70" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>-768.5</v>
+        <v>-770.5</v>
       </c>
       <c r="R70" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -4406,10 +4406,10 @@
         <v>-1</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H71" t="n">
         <v>-1</v>
@@ -4421,7 +4421,7 @@
         <v>-1</v>
       </c>
       <c r="K71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>-1</v>
@@ -4433,7 +4433,7 @@
         <v>-1</v>
       </c>
       <c r="O71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
         <v>-1</v>
@@ -4459,7 +4459,7 @@
         <v>-1</v>
       </c>
       <c r="E72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>-1</v>
@@ -4480,13 +4480,13 @@
         <v>-1</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M72" t="n">
         <v>-1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O72" t="n">
         <v>-1</v>
@@ -4498,12 +4498,12 @@
         <v>-769.5</v>
       </c>
       <c r="R72" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
@@ -4512,10 +4512,10 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F73" t="n">
         <v>-1</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="H73" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>-1</v>
@@ -4554,7 +4554,7 @@
         <v>-769.5</v>
       </c>
       <c r="R73" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
@@ -4568,19 +4568,19 @@
         <v>-1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E74" t="n">
         <v>-1</v>
       </c>
       <c r="F74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I74" t="n">
         <v>-1</v>
@@ -4610,7 +4610,7 @@
         <v>-769.5</v>
       </c>
       <c r="R74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -4618,10 +4618,10 @@
         <v>-1</v>
       </c>
       <c r="B75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D75" t="n">
         <v>-1</v>
@@ -4639,10 +4639,10 @@
         <v>-1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>-1</v>
@@ -4666,7 +4666,7 @@
         <v>-769.5</v>
       </c>
       <c r="R75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -4674,10 +4674,10 @@
         <v>-1</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C76" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
         <v>-1</v>
@@ -4695,10 +4695,10 @@
         <v>-1</v>
       </c>
       <c r="I76" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K76" t="n">
         <v>-1</v>
@@ -4722,7 +4722,7 @@
         <v>-769.5</v>
       </c>
       <c r="R76" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -4757,19 +4757,19 @@
         <v>-1</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>-1</v>
       </c>
       <c r="N77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>-769.5</v>
       </c>
       <c r="R77" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -4786,7 +4786,7 @@
         <v>-1</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C78" t="n">
         <v>-1</v>
@@ -4795,7 +4795,7 @@
         <v>-1</v>
       </c>
       <c r="E78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>-1</v>
@@ -4807,10 +4807,10 @@
         <v>-1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>-1</v>
@@ -4828,13 +4828,13 @@
         <v>-1</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q78" t="n">
-        <v>-768.5</v>
+        <v>-772.5</v>
       </c>
       <c r="R78" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -4848,16 +4848,16 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F79" t="n">
         <v>-1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H79" t="n">
         <v>-1</v>
@@ -4866,7 +4866,7 @@
         <v>-1</v>
       </c>
       <c r="J79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>-1</v>
@@ -4884,18 +4884,18 @@
         <v>-1</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q79" t="n">
-        <v>-768.5</v>
+        <v>-771.5</v>
       </c>
       <c r="R79" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B80" t="n">
         <v>-1</v>
@@ -4904,16 +4904,16 @@
         <v>-1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>-1</v>
       </c>
       <c r="G80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>-1</v>
@@ -4946,7 +4946,7 @@
         <v>-768.5</v>
       </c>
       <c r="R80" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -5002,7 +5002,7 @@
         <v>-768.5</v>
       </c>
       <c r="R81" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -5013,7 +5013,7 @@
         <v>-1</v>
       </c>
       <c r="C82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>-1</v>
@@ -5028,13 +5028,13 @@
         <v>-1</v>
       </c>
       <c r="H82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>-1</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K82" t="n">
         <v>-1</v>
@@ -5049,7 +5049,7 @@
         <v>-1</v>
       </c>
       <c r="O82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>-768.5</v>
       </c>
       <c r="R82" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83">
@@ -5069,7 +5069,7 @@
         <v>-1</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D83" t="n">
         <v>-1</v>
@@ -5084,13 +5084,13 @@
         <v>-1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I83" t="n">
         <v>-1</v>
       </c>
       <c r="J83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>-1</v>
@@ -5105,7 +5105,7 @@
         <v>-1</v>
       </c>
       <c r="O83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
@@ -5114,12 +5114,12 @@
         <v>-768.5</v>
       </c>
       <c r="R83" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B84" t="n">
         <v>-1</v>
@@ -5128,7 +5128,7 @@
         <v>-1</v>
       </c>
       <c r="D84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
         <v>-1</v>
@@ -5152,10 +5152,10 @@
         <v>-1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N84" t="n">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>-768.5</v>
       </c>
       <c r="R84" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -5205,10 +5205,10 @@
         <v>-1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L85" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
@@ -5223,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>-767.5</v>
+        <v>-768.5</v>
       </c>
       <c r="R85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -5234,13 +5234,13 @@
         <v>-1</v>
       </c>
       <c r="B86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E86" t="n">
         <v>-1</v>
@@ -5249,13 +5249,13 @@
         <v>-1</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H86" t="n">
         <v>-1</v>
       </c>
       <c r="I86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
         <v>-1</v>
@@ -5279,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>-767.5</v>
+        <v>-768.5</v>
       </c>
       <c r="R86" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87">
@@ -5290,13 +5290,13 @@
         <v>-1</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C87" t="n">
         <v>-1</v>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>-1</v>
@@ -5305,10 +5305,10 @@
         <v>-1</v>
       </c>
       <c r="G87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I87" t="n">
         <v>-1</v>
@@ -5338,7 +5338,7 @@
         <v>-767.5</v>
       </c>
       <c r="R87" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88">
@@ -5394,7 +5394,7 @@
         <v>-767.5</v>
       </c>
       <c r="R88" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -5450,7 +5450,7 @@
         <v>-767.5</v>
       </c>
       <c r="R89" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -5506,7 +5506,7 @@
         <v>-767.5</v>
       </c>
       <c r="R90" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
@@ -5514,10 +5514,10 @@
         <v>-1</v>
       </c>
       <c r="B91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D91" t="n">
         <v>-1</v>
@@ -5529,10 +5529,10 @@
         <v>-1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>-1</v>
@@ -5559,18 +5559,18 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>-766.5</v>
+        <v>-767.5</v>
       </c>
       <c r="R91" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C92" t="n">
         <v>-1</v>
@@ -5597,13 +5597,13 @@
         <v>-1</v>
       </c>
       <c r="K92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>-1</v>
       </c>
       <c r="M92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
         <v>-1</v>
@@ -5615,10 +5615,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>-766.5</v>
+        <v>-767.5</v>
       </c>
       <c r="R92" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -5629,7 +5629,7 @@
         <v>-1</v>
       </c>
       <c r="C93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>-1</v>
@@ -5641,7 +5641,7 @@
         <v>-1</v>
       </c>
       <c r="G93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>-1</v>
@@ -5653,10 +5653,10 @@
         <v>-1</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M93" t="n">
         <v>-1</v>
@@ -5674,7 +5674,7 @@
         <v>-766.5</v>
       </c>
       <c r="R93" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -5700,13 +5700,13 @@
         <v>-1</v>
       </c>
       <c r="H94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>-1</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K94" t="n">
         <v>-1</v>
@@ -5715,13 +5715,13 @@
         <v>-1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N94" t="n">
         <v>-1</v>
       </c>
       <c r="O94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>-766.5</v>
       </c>
       <c r="R94" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
@@ -5756,13 +5756,13 @@
         <v>-1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I95" t="n">
         <v>-1</v>
       </c>
       <c r="J95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>-1</v>
@@ -5771,13 +5771,13 @@
         <v>-1</v>
       </c>
       <c r="M95" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
         <v>-1</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5786,7 +5786,7 @@
         <v>-766.5</v>
       </c>
       <c r="R95" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
@@ -5842,7 +5842,7 @@
         <v>-766.5</v>
       </c>
       <c r="R96" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C97" t="n">
         <v>-1</v>
@@ -5865,7 +5865,7 @@
         <v>-1</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H97" t="n">
         <v>-1</v>
@@ -5877,10 +5877,10 @@
         <v>-1</v>
       </c>
       <c r="K97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>-1</v>
@@ -5895,18 +5895,18 @@
         <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>-765.5</v>
+        <v>-766.5</v>
       </c>
       <c r="R97" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>-1</v>
@@ -5927,7 +5927,7 @@
         <v>-1</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="n">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N98" t="n">
         <v>-1</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>-765.5</v>
+        <v>-766.5</v>
       </c>
       <c r="R98" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -6066,7 +6066,7 @@
         <v>-765.5</v>
       </c>
       <c r="R100" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -6074,7 +6074,7 @@
         <v>-1</v>
       </c>
       <c r="B101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>-1</v>
@@ -6089,7 +6089,7 @@
         <v>-1</v>
       </c>
       <c r="G101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
         <v>-1</v>
@@ -6098,13 +6098,13 @@
         <v>-1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K101" t="n">
         <v>-1</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M101" t="n">
         <v>-1</v>
@@ -6122,7 +6122,7 @@
         <v>-765.5</v>
       </c>
       <c r="R101" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
@@ -6145,7 +6145,7 @@
         <v>-1</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H102" t="n">
         <v>-1</v>
@@ -6154,13 +6154,13 @@
         <v>-1</v>
       </c>
       <c r="J102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>-1</v>
       </c>
       <c r="L102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>-1</v>
@@ -6169,16 +6169,16 @@
         <v>-1</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
       </c>
       <c r="Q102" t="n">
-        <v>-764.5</v>
+        <v>-765.5</v>
       </c>
       <c r="R102" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103">
@@ -6204,10 +6204,10 @@
         <v>-1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I103" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>-1</v>
@@ -6231,15 +6231,15 @@
         <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>-764.5</v>
+        <v>-765.5</v>
       </c>
       <c r="R103" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B104" t="n">
         <v>-1</v>
@@ -6251,7 +6251,7 @@
         <v>-1</v>
       </c>
       <c r="E104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
         <v>-1</v>
@@ -6278,19 +6278,19 @@
         <v>-1</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O104" t="n">
         <v>-1</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q104" t="n">
-        <v>-764.5</v>
+        <v>-800.5</v>
       </c>
       <c r="R104" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -6304,7 +6304,7 @@
         <v>-1</v>
       </c>
       <c r="D105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>-1</v>
@@ -6322,10 +6322,10 @@
         <v>-1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L105" t="n">
         <v>-1</v>
@@ -6340,13 +6340,13 @@
         <v>-1</v>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q105" t="n">
-        <v>-764.5</v>
+        <v>-799.5</v>
       </c>
       <c r="R105" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
@@ -6369,13 +6369,13 @@
         <v>-1</v>
       </c>
       <c r="G106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>-1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J106" t="n">
         <v>-1</v>
@@ -6384,7 +6384,7 @@
         <v>-1</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M106" t="n">
         <v>-1</v>
@@ -6393,7 +6393,7 @@
         <v>-1</v>
       </c>
       <c r="O106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
@@ -6402,12 +6402,12 @@
         <v>-764.5</v>
       </c>
       <c r="R106" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
@@ -6431,13 +6431,13 @@
         <v>-1</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J107" t="n">
         <v>-1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L107" t="n">
         <v>-1</v>
@@ -6446,19 +6446,19 @@
         <v>-1</v>
       </c>
       <c r="N107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
         <v>-1</v>
       </c>
       <c r="P107" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q107" t="n">
-        <v>-763.5</v>
+        <v>-764.5</v>
       </c>
       <c r="R107" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -6487,13 +6487,13 @@
         <v>-1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
         <v>-1</v>
@@ -6508,13 +6508,13 @@
         <v>-1</v>
       </c>
       <c r="P108" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q108" t="n">
-        <v>-762.5</v>
+        <v>-764.5</v>
       </c>
       <c r="R108" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -6540,22 +6540,22 @@
         <v>-1</v>
       </c>
       <c r="H109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J109" t="n">
         <v>-1</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L109" t="n">
         <v>-1</v>
       </c>
       <c r="M109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
         <v>-1</v>
@@ -6567,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>-763.5</v>
+        <v>-764.5</v>
       </c>
       <c r="R109" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
@@ -6593,13 +6593,13 @@
         <v>-1</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H110" t="n">
         <v>-1</v>
       </c>
       <c r="I110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
         <v>-1</v>
@@ -6608,13 +6608,13 @@
         <v>-1</v>
       </c>
       <c r="L110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
         <v>-1</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O110" t="n">
         <v>-1</v>
@@ -6623,10 +6623,10 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>-763.5</v>
+        <v>-764.5</v>
       </c>
       <c r="R110" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -6649,10 +6649,10 @@
         <v>-1</v>
       </c>
       <c r="G111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I111" t="n">
         <v>-1</v>
@@ -6664,13 +6664,13 @@
         <v>-1</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M111" t="n">
         <v>-1</v>
       </c>
       <c r="N111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
         <v>-1</v>
@@ -6682,12 +6682,12 @@
         <v>-763.5</v>
       </c>
       <c r="R111" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B112" t="n">
         <v>-1</v>
@@ -6708,7 +6708,7 @@
         <v>-1</v>
       </c>
       <c r="H112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>-1</v>
@@ -6720,10 +6720,10 @@
         <v>-1</v>
       </c>
       <c r="L112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N112" t="n">
         <v>-1</v>
@@ -6738,7 +6738,7 @@
         <v>-763.5</v>
       </c>
       <c r="R112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113">
@@ -6770,10 +6770,10 @@
         <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>-1</v>
@@ -6791,15 +6791,15 @@
         <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>-762.5</v>
+        <v>-763.5</v>
       </c>
       <c r="R113" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B114" t="n">
         <v>-1</v>
@@ -6817,7 +6817,7 @@
         <v>-1</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H114" t="n">
         <v>-1</v>
@@ -6847,15 +6847,15 @@
         <v>0</v>
       </c>
       <c r="Q114" t="n">
-        <v>-762.5</v>
+        <v>-763.5</v>
       </c>
       <c r="R114" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
@@ -6876,7 +6876,7 @@
         <v>-1</v>
       </c>
       <c r="H115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>-1</v>
@@ -6885,10 +6885,10 @@
         <v>-1</v>
       </c>
       <c r="K115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M115" t="n">
         <v>-1</v>
@@ -6906,7 +6906,7 @@
         <v>-762.5</v>
       </c>
       <c r="R115" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
@@ -6929,10 +6929,10 @@
         <v>-1</v>
       </c>
       <c r="G116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I116" t="n">
         <v>-1</v>
@@ -6941,13 +6941,13 @@
         <v>-1</v>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L116" t="n">
         <v>-1</v>
       </c>
       <c r="M116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
         <v>-1</v>
@@ -6962,12 +6962,12 @@
         <v>-762.5</v>
       </c>
       <c r="R116" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
@@ -6985,7 +6985,7 @@
         <v>-1</v>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H117" t="n">
         <v>-1</v>
@@ -7015,15 +7015,15 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>-761.5</v>
+        <v>-762.5</v>
       </c>
       <c r="R117" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B118" t="n">
         <v>-1</v>
@@ -7047,13 +7047,13 @@
         <v>-1</v>
       </c>
       <c r="I118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L118" t="n">
         <v>-1</v>
@@ -7071,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="n">
-        <v>-761.5</v>
+        <v>-762.5</v>
       </c>
       <c r="R118" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
@@ -7088,10 +7088,10 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
         <v>-1</v>
@@ -7100,13 +7100,13 @@
         <v>-1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I119" t="n">
         <v>-1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K119" t="n">
         <v>-1</v>
@@ -7124,13 +7124,13 @@
         <v>-1</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q119" t="n">
-        <v>-761.5</v>
+        <v>-780.5</v>
       </c>
       <c r="R119" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -7156,16 +7156,16 @@
         <v>-1</v>
       </c>
       <c r="H120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>-1</v>
       </c>
       <c r="J120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L120" t="n">
         <v>-1</v>
@@ -7180,13 +7180,13 @@
         <v>-1</v>
       </c>
       <c r="P120" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q120" t="n">
-        <v>-792.5</v>
+        <v>-761.5</v>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121">
@@ -7209,7 +7209,7 @@
         <v>-1</v>
       </c>
       <c r="G121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>-1</v>
@@ -7218,13 +7218,13 @@
         <v>-1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K121" t="n">
         <v>-1</v>
       </c>
       <c r="L121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M121" t="n">
         <v>-1</v>
@@ -7236,10 +7236,10 @@
         <v>-1</v>
       </c>
       <c r="P121" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q121" t="n">
-        <v>-791.5</v>
+        <v>-761.5</v>
       </c>
       <c r="R121" t="n">
         <v>2</v>
@@ -7247,7 +7247,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
         <v>-1</v>
@@ -7265,7 +7265,7 @@
         <v>-1</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H122" t="n">
         <v>-1</v>
@@ -7295,10 +7295,10 @@
         <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>-760.5</v>
+        <v>-761.5</v>
       </c>
       <c r="R122" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -7312,10 +7312,10 @@
         <v>-1</v>
       </c>
       <c r="D123" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
         <v>-1</v>
@@ -7324,10 +7324,10 @@
         <v>-1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J123" t="n">
         <v>-1</v>
@@ -7348,18 +7348,18 @@
         <v>-1</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q123" t="n">
-        <v>-760.5</v>
+        <v>-780.5</v>
       </c>
       <c r="R123" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B124" t="n">
         <v>-1</v>
@@ -7377,7 +7377,7 @@
         <v>-1</v>
       </c>
       <c r="G124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>-1</v>
@@ -7386,10 +7386,10 @@
         <v>-1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
         <v>-1</v>
@@ -7410,7 +7410,7 @@
         <v>-760.5</v>
       </c>
       <c r="R124" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -7427,7 +7427,7 @@
         <v>-1</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F125" t="n">
         <v>-1</v>
@@ -7436,10 +7436,10 @@
         <v>-1</v>
       </c>
       <c r="H125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>-1</v>
@@ -7460,18 +7460,18 @@
         <v>-1</v>
       </c>
       <c r="P125" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q125" t="n">
-        <v>-800.5</v>
+        <v>-760.5</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B126" t="n">
         <v>-1</v>
@@ -7489,7 +7489,7 @@
         <v>-1</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H126" t="n">
         <v>-1</v>
@@ -7519,10 +7519,10 @@
         <v>0</v>
       </c>
       <c r="Q126" t="n">
-        <v>-759.5</v>
+        <v>-760.5</v>
       </c>
       <c r="R126" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -7578,7 +7578,7 @@
         <v>-759.5</v>
       </c>
       <c r="R127" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -7607,10 +7607,10 @@
         <v>-1</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
         <v>-1</v>
@@ -7631,10 +7631,10 @@
         <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>-758.5</v>
+        <v>-759.5</v>
       </c>
       <c r="R128" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -7690,7 +7690,7 @@
         <v>-758.5</v>
       </c>
       <c r="R129" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130">
@@ -7716,10 +7716,10 @@
         <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I130" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
         <v>-1</v>
@@ -7743,33 +7743,33 @@
         <v>0</v>
       </c>
       <c r="Q130" t="n">
-        <v>-757.5</v>
+        <v>-758.5</v>
       </c>
       <c r="R130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
         <v>-1</v>
       </c>
       <c r="E131" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
         <v>-1</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H131" t="n">
         <v>-1</v>
@@ -7796,13 +7796,13 @@
         <v>-1</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q131" t="n">
-        <v>-756.5</v>
+        <v>-779.5</v>
       </c>
       <c r="R131" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -7819,16 +7819,16 @@
         <v>-1</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F132" t="n">
         <v>-1</v>
       </c>
       <c r="G132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>-1</v>
@@ -7852,13 +7852,13 @@
         <v>-1</v>
       </c>
       <c r="P132" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q132" t="n">
-        <v>-800.5</v>
+        <v>-757.5</v>
       </c>
       <c r="R132" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133">
@@ -7872,10 +7872,10 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F133" t="n">
         <v>-1</v>
@@ -7911,7 +7911,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q133" t="n">
-        <v>-779.5</v>
+        <v>-778.5</v>
       </c>
       <c r="R133" t="n">
         <v>3</v>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
         <v>-1</v>
@@ -7937,7 +7937,7 @@
         <v>-1</v>
       </c>
       <c r="G134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>-1</v>
@@ -7949,7 +7949,7 @@
         <v>-1</v>
       </c>
       <c r="K134" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L134" t="n">
         <v>-1</v>
@@ -7964,13 +7964,13 @@
         <v>-1</v>
       </c>
       <c r="P134" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>-792.5</v>
+        <v>-756.5</v>
       </c>
       <c r="R134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -7978,7 +7978,7 @@
         <v>-1</v>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>-1</v>
@@ -7990,7 +7990,7 @@
         <v>-1</v>
       </c>
       <c r="F135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>-1</v>
@@ -8002,7 +8002,7 @@
         <v>-1</v>
       </c>
       <c r="J135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K135" t="n">
         <v>-1</v>
@@ -8023,10 +8023,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q135" t="n">
-        <v>-791.5</v>
+        <v>-779.5</v>
       </c>
       <c r="R135" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136">
@@ -8040,10 +8040,10 @@
         <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E136" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
         <v>-1</v>
@@ -8061,7 +8061,7 @@
         <v>-1</v>
       </c>
       <c r="K136" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L136" t="n">
         <v>-1</v>
@@ -8070,7 +8070,7 @@
         <v>-1</v>
       </c>
       <c r="N136" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O136" t="n">
         <v>1</v>
@@ -8079,10 +8079,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q136" t="n">
-        <v>-717.5</v>
+        <v>-721.5</v>
       </c>
       <c r="R136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -8114,7 +8114,7 @@
         <v>-1</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K137" t="n">
         <v>-1</v>
@@ -8126,7 +8126,7 @@
         <v>-1</v>
       </c>
       <c r="N137" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O137" t="n">
         <v>1</v>
@@ -8135,10 +8135,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q137" t="n">
-        <v>-716.5</v>
+        <v>-720.5</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -8152,13 +8152,13 @@
         <v>-1</v>
       </c>
       <c r="D138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>-1</v>
       </c>
       <c r="F138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>-1</v>
@@ -8170,10 +8170,10 @@
         <v>-1</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L138" t="n">
         <v>-1</v>
@@ -8191,7 +8191,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q138" t="n">
-        <v>-764.5</v>
+        <v>-781.5</v>
       </c>
       <c r="R138" t="n">
         <v>2</v>
@@ -8199,7 +8199,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
@@ -8211,7 +8211,7 @@
         <v>-1</v>
       </c>
       <c r="E139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
         <v>-1</v>
@@ -8226,7 +8226,7 @@
         <v>-1</v>
       </c>
       <c r="J139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>-1</v>
@@ -8241,13 +8241,13 @@
         <v>-1</v>
       </c>
       <c r="O139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q139" t="n">
-        <v>-788.5</v>
+        <v>-717.5</v>
       </c>
       <c r="R139" t="n">
         <v>2</v>
@@ -8255,22 +8255,22 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B140" t="n">
         <v>-1</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
         <v>-1</v>
       </c>
       <c r="F140" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>-1</v>
@@ -8303,7 +8303,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q140" t="n">
-        <v>-767.5</v>
+        <v>-781.5</v>
       </c>
       <c r="R140" t="n">
         <v>1</v>
@@ -8320,10 +8320,10 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E141" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
         <v>-1</v>
@@ -8335,7 +8335,7 @@
         <v>-1</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J141" t="n">
         <v>1</v>
@@ -8350,7 +8350,7 @@
         <v>-1</v>
       </c>
       <c r="N141" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q141" t="n">
-        <v>-710.5</v>
+        <v>-716.5</v>
       </c>
       <c r="R141" t="n">
         <v>1</v>
@@ -8373,7 +8373,7 @@
         <v>-1</v>
       </c>
       <c r="C142" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
         <v>-1</v>
@@ -8394,7 +8394,7 @@
         <v>-1</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K142" t="n">
         <v>-1</v>
@@ -8415,10 +8415,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q142" t="n">
-        <v>-791.5</v>
+        <v>-798.5</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -8429,16 +8429,16 @@
         <v>-1</v>
       </c>
       <c r="C143" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D143" t="n">
         <v>-1</v>
       </c>
       <c r="E143" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G143" t="n">
         <v>-1</v>
@@ -8453,7 +8453,7 @@
         <v>-1</v>
       </c>
       <c r="K143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L143" t="n">
         <v>-1</v>
@@ -8471,10 +8471,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q143" t="n">
-        <v>-774.5</v>
+        <v>-779.5</v>
       </c>
       <c r="R143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -8491,16 +8491,16 @@
         <v>-1</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G144" t="n">
         <v>-1</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I144" t="n">
         <v>-1</v>
@@ -8515,7 +8515,7 @@
         <v>-1</v>
       </c>
       <c r="M144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N144" t="n">
         <v>-1</v>
@@ -8527,7 +8527,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q144" t="n">
-        <v>-770.5</v>
+        <v>-776.5</v>
       </c>
       <c r="R144" t="n">
         <v>1</v>
@@ -8538,7 +8538,7 @@
         <v>-1</v>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>-1</v>
@@ -8550,7 +8550,7 @@
         <v>-1</v>
       </c>
       <c r="F145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G145" t="n">
         <v>-1</v>
@@ -8565,13 +8565,13 @@
         <v>-1</v>
       </c>
       <c r="K145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L145" t="n">
         <v>-1</v>
       </c>
       <c r="M145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N145" t="n">
         <v>-1</v>
@@ -8583,7 +8583,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q145" t="n">
-        <v>-767.5</v>
+        <v>-779.5</v>
       </c>
       <c r="R145" t="n">
         <v>1</v>
@@ -8594,7 +8594,7 @@
         <v>-1</v>
       </c>
       <c r="B146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>-1</v>
@@ -8603,10 +8603,10 @@
         <v>-1</v>
       </c>
       <c r="E146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G146" t="n">
         <v>-1</v>
@@ -8618,7 +8618,7 @@
         <v>-1</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K146" t="n">
         <v>-1</v>
@@ -8639,10 +8639,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q146" t="n">
-        <v>-773.5</v>
+        <v>-778.5</v>
       </c>
       <c r="R146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -8659,7 +8659,7 @@
         <v>-1</v>
       </c>
       <c r="E147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>-1</v>
@@ -8671,13 +8671,13 @@
         <v>-1</v>
       </c>
       <c r="I147" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J147" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L147" t="n">
         <v>-1</v>
@@ -8689,13 +8689,13 @@
         <v>-1</v>
       </c>
       <c r="O147" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P147" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q147" t="n">
-        <v>-708.5</v>
+        <v>-772.5</v>
       </c>
       <c r="R147" t="n">
         <v>1</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
@@ -8774,7 +8774,7 @@
         <v>-1</v>
       </c>
       <c r="F149" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G149" t="n">
         <v>-1</v>
@@ -8792,10 +8792,10 @@
         <v>-1</v>
       </c>
       <c r="L149" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M149" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
         <v>-1</v>
@@ -8807,7 +8807,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q149" t="n">
-        <v>-762.5</v>
+        <v>-776.5</v>
       </c>
       <c r="R149" t="n">
         <v>1</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B150" t="n">
         <v>-1</v>
@@ -8824,10 +8824,10 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>-1</v>
@@ -8857,16 +8857,16 @@
         <v>-1</v>
       </c>
       <c r="O150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P150" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q150" t="n">
-        <v>-788.5</v>
+        <v>-725.5</v>
       </c>
       <c r="R150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -8880,7 +8880,7 @@
         <v>-1</v>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E151" t="n">
         <v>-1</v>
@@ -8889,7 +8889,7 @@
         <v>-1</v>
       </c>
       <c r="G151" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
         <v>-1</v>
@@ -8901,7 +8901,7 @@
         <v>-1</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L151" t="n">
         <v>-1</v>
@@ -8910,7 +8910,7 @@
         <v>-1</v>
       </c>
       <c r="N151" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O151" t="n">
         <v>-1</v>
@@ -8919,7 +8919,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q151" t="n">
-        <v>-768.5</v>
+        <v>-767.5</v>
       </c>
       <c r="R151" t="n">
         <v>1</v>
@@ -8927,13 +8927,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B152" t="n">
         <v>-1</v>
       </c>
       <c r="C152" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>-1</v>
@@ -8975,7 +8975,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q152" t="n">
-        <v>-756.5</v>
+        <v>-766.5</v>
       </c>
       <c r="R152" t="n">
         <v>1</v>
@@ -8989,10 +8989,10 @@
         <v>-1</v>
       </c>
       <c r="C153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -9013,7 +9013,7 @@
         <v>-1</v>
       </c>
       <c r="K153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L153" t="n">
         <v>-1</v>
@@ -9031,7 +9031,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q153" t="n">
-        <v>-773.5</v>
+        <v>-727.5</v>
       </c>
       <c r="R153" t="n">
         <v>1</v>
@@ -9048,10 +9048,10 @@
         <v>-1</v>
       </c>
       <c r="D154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F154" t="n">
         <v>-1</v>
@@ -9066,10 +9066,10 @@
         <v>-1</v>
       </c>
       <c r="J154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L154" t="n">
         <v>-1</v>
@@ -9104,10 +9104,10 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>-1</v>
@@ -9116,7 +9116,7 @@
         <v>-1</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I155" t="n">
         <v>-1</v>
@@ -9125,7 +9125,7 @@
         <v>-1</v>
       </c>
       <c r="K155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L155" t="n">
         <v>-1</v>
@@ -9134,7 +9134,7 @@
         <v>-1</v>
       </c>
       <c r="N155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O155" t="n">
         <v>-1</v>
@@ -9143,7 +9143,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q155" t="n">
-        <v>-762.5</v>
+        <v>-724.5</v>
       </c>
       <c r="R155" t="n">
         <v>1</v>
@@ -9154,7 +9154,7 @@
         <v>-1</v>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>-1</v>
@@ -9181,7 +9181,7 @@
         <v>-1</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L156" t="n">
         <v>-1</v>
@@ -9199,18 +9199,18 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q156" t="n">
-        <v>-760.5</v>
+        <v>-765.5</v>
       </c>
       <c r="R156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C157" t="n">
         <v>-1</v>
@@ -9219,7 +9219,7 @@
         <v>-1</v>
       </c>
       <c r="E157" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F157" t="n">
         <v>-1</v>
@@ -9231,7 +9231,7 @@
         <v>-1</v>
       </c>
       <c r="I157" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J157" t="n">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q157" t="n">
-        <v>-766.5</v>
+        <v>-771.5</v>
       </c>
       <c r="R157" t="n">
         <v>1</v>
@@ -9284,16 +9284,16 @@
         <v>-1</v>
       </c>
       <c r="H158" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J158" t="n">
         <v>-1</v>
       </c>
       <c r="K158" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L158" t="n">
         <v>-1</v>
@@ -9305,13 +9305,13 @@
         <v>-1</v>
       </c>
       <c r="O158" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P158" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q158" t="n">
-        <v>-763.5</v>
+        <v>-766.5</v>
       </c>
       <c r="R158" t="n">
         <v>1</v>
@@ -9319,19 +9319,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B159" t="n">
         <v>-1</v>
       </c>
       <c r="C159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D159" t="n">
         <v>-1</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F159" t="n">
         <v>-1</v>
@@ -9355,7 +9355,7 @@
         <v>-1</v>
       </c>
       <c r="M159" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N159" t="n">
         <v>-1</v>
@@ -9367,7 +9367,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q159" t="n">
-        <v>-769.5</v>
+        <v>-773.5</v>
       </c>
       <c r="R159" t="n">
         <v>1</v>
@@ -9378,19 +9378,19 @@
         <v>-1</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C160" t="n">
         <v>-1</v>
       </c>
       <c r="D160" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G160" t="n">
         <v>-1</v>
@@ -9402,7 +9402,7 @@
         <v>-1</v>
       </c>
       <c r="J160" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K160" t="n">
         <v>-1</v>
@@ -9420,10 +9420,10 @@
         <v>-1</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q160" t="n">
-        <v>-728.5</v>
+        <v>-720.5</v>
       </c>
       <c r="R160" t="n">
         <v>1</v>
@@ -9440,16 +9440,16 @@
         <v>-1</v>
       </c>
       <c r="D161" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G161" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>-1</v>
@@ -9473,13 +9473,13 @@
         <v>-1</v>
       </c>
       <c r="O161" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P161" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q161" t="n">
-        <v>-727.5</v>
+        <v>-767.5</v>
       </c>
       <c r="R161" t="n">
         <v>1</v>
@@ -9490,10 +9490,10 @@
         <v>-1</v>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D162" t="n">
         <v>-1</v>
@@ -9511,7 +9511,7 @@
         <v>-1</v>
       </c>
       <c r="I162" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>-1</v>
@@ -9535,7 +9535,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q162" t="n">
-        <v>-776.5</v>
+        <v>-790.5</v>
       </c>
       <c r="R162" t="n">
         <v>1</v>
@@ -9549,13 +9549,13 @@
         <v>-1</v>
       </c>
       <c r="C163" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F163" t="n">
         <v>-1</v>
@@ -9585,13 +9585,13 @@
         <v>-1</v>
       </c>
       <c r="O163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P163" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q163" t="n">
-        <v>-725.5</v>
+        <v>-798.5</v>
       </c>
       <c r="R163" t="n">
         <v>1</v>
@@ -9608,13 +9608,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
         <v>-1</v>
@@ -9638,19 +9638,19 @@
         <v>-1</v>
       </c>
       <c r="N164" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O164" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P164" t="n">
         <v>0</v>
       </c>
       <c r="Q164" t="n">
-        <v>-724.5</v>
+        <v>-727.5</v>
       </c>
       <c r="R164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -9658,7 +9658,7 @@
         <v>-1</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C165" t="n">
         <v>-1</v>
@@ -9670,7 +9670,7 @@
         <v>-1</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G165" t="n">
         <v>-1</v>
@@ -9679,7 +9679,7 @@
         <v>-1</v>
       </c>
       <c r="I165" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
         <v>-1</v>
@@ -9697,13 +9697,13 @@
         <v>-1</v>
       </c>
       <c r="O165" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P165" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q165" t="n">
-        <v>-724.5</v>
+        <v>-790.5</v>
       </c>
       <c r="R165" t="n">
         <v>1</v>
@@ -9726,13 +9726,13 @@
         <v>-1</v>
       </c>
       <c r="F166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H166" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>-1</v>
@@ -9759,7 +9759,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q166" t="n">
-        <v>-769.5</v>
+        <v>-789.5</v>
       </c>
       <c r="R166" t="n">
         <v>1</v>
@@ -9773,7 +9773,7 @@
         <v>-1</v>
       </c>
       <c r="C167" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>-1</v>
@@ -9791,7 +9791,7 @@
         <v>-1</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J167" t="n">
         <v>-1</v>
@@ -9803,7 +9803,7 @@
         <v>-1</v>
       </c>
       <c r="M167" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N167" t="n">
         <v>-1</v>
@@ -9815,7 +9815,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q167" t="n">
-        <v>-790.5</v>
+        <v>-773.5</v>
       </c>
       <c r="R167" t="n">
         <v>1</v>
@@ -9838,10 +9838,10 @@
         <v>-1</v>
       </c>
       <c r="F168" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
         <v>-1</v>
@@ -9850,10 +9850,10 @@
         <v>-1</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K168" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L168" t="n">
         <v>-1</v>
@@ -9871,7 +9871,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q168" t="n">
-        <v>-764.5</v>
+        <v>-769.5</v>
       </c>
       <c r="R168" t="n">
         <v>1</v>
@@ -9882,7 +9882,7 @@
         <v>-1</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C169" t="n">
         <v>-1</v>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>-1</v>
@@ -9912,7 +9912,7 @@
         <v>-1</v>
       </c>
       <c r="L169" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M169" t="n">
         <v>-1</v>
@@ -9921,16 +9921,16 @@
         <v>-1</v>
       </c>
       <c r="O169" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P169" t="n">
         <v>0</v>
       </c>
       <c r="Q169" t="n">
-        <v>-723.5</v>
+        <v>-724.5</v>
       </c>
       <c r="R169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -9941,7 +9941,7 @@
         <v>-1</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D170" t="n">
         <v>1</v>
@@ -9950,7 +9950,7 @@
         <v>-1</v>
       </c>
       <c r="F170" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G170" t="n">
         <v>-1</v>
@@ -9980,10 +9980,10 @@
         <v>1</v>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q170" t="n">
-        <v>-723.5</v>
+        <v>-726.5</v>
       </c>
       <c r="R170" t="n">
         <v>1</v>
@@ -10000,10 +10000,10 @@
         <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E171" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -10024,22 +10024,22 @@
         <v>-1</v>
       </c>
       <c r="L171" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M171" t="n">
         <v>-1</v>
       </c>
       <c r="N171" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O171" t="n">
         <v>-1</v>
       </c>
       <c r="P171" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q171" t="n">
-        <v>-723.5</v>
+        <v>-726.5</v>
       </c>
       <c r="R171" t="n">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>-1</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C172" t="n">
         <v>-1</v>
@@ -10062,7 +10062,7 @@
         <v>-1</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G172" t="n">
         <v>-1</v>
@@ -10083,19 +10083,19 @@
         <v>-1</v>
       </c>
       <c r="M172" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N172" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O172" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q172" t="n">
-        <v>-723.5</v>
+        <v>-771.5</v>
       </c>
       <c r="R172" t="n">
         <v>1</v>
@@ -10106,19 +10106,19 @@
         <v>-1</v>
       </c>
       <c r="B173" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F173" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G173" t="n">
         <v>-1</v>
@@ -10139,7 +10139,7 @@
         <v>-1</v>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N173" t="n">
         <v>-1</v>
@@ -10148,10 +10148,10 @@
         <v>-1</v>
       </c>
       <c r="P173" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q173" t="n">
-        <v>-723.5</v>
+        <v>-726.5</v>
       </c>
       <c r="R173" t="n">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>-1</v>
       </c>
       <c r="B174" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>-1</v>
@@ -10192,7 +10192,7 @@
         <v>-1</v>
       </c>
       <c r="L174" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M174" t="n">
         <v>-1</v>
@@ -10201,13 +10201,13 @@
         <v>-1</v>
       </c>
       <c r="O174" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P174" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q174" t="n">
-        <v>-773.5</v>
+        <v>-722.5</v>
       </c>
       <c r="R174" t="n">
         <v>1</v>
@@ -10221,13 +10221,13 @@
         <v>-1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
         <v>-1</v>
@@ -10248,13 +10248,13 @@
         <v>-1</v>
       </c>
       <c r="L175" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M175" t="n">
         <v>-1</v>
       </c>
       <c r="N175" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O175" t="n">
         <v>-1</v>
@@ -10277,13 +10277,13 @@
         <v>-1</v>
       </c>
       <c r="C176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
         <v>-1</v>
       </c>
       <c r="E176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>-1</v>
@@ -10295,13 +10295,13 @@
         <v>-1</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K176" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L176" t="n">
         <v>-1</v>
@@ -10313,13 +10313,13 @@
         <v>-1</v>
       </c>
       <c r="O176" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P176" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q176" t="n">
-        <v>-703.5</v>
+        <v>-724.5</v>
       </c>
       <c r="R176" t="n">
         <v>1</v>
@@ -10378,7 +10378,7 @@
         <v>-720.5</v>
       </c>
       <c r="R177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="B178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E178" t="n">
         <v>-1</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G178" t="n">
         <v>-1</v>
@@ -10407,7 +10407,7 @@
         <v>-1</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J178" t="n">
         <v>-1</v>
@@ -10422,7 +10422,7 @@
         <v>-1</v>
       </c>
       <c r="N178" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O178" t="n">
         <v>-1</v>
@@ -10442,10 +10442,10 @@
         <v>-1</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D179" t="n">
         <v>-1</v>
@@ -10454,7 +10454,7 @@
         <v>-1</v>
       </c>
       <c r="F179" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G179" t="n">
         <v>-1</v>
@@ -10475,7 +10475,7 @@
         <v>-1</v>
       </c>
       <c r="M179" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N179" t="n">
         <v>1</v>
@@ -10490,7 +10490,7 @@
         <v>-720.5</v>
       </c>
       <c r="R179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -10498,7 +10498,7 @@
         <v>-1</v>
       </c>
       <c r="B180" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
         <v>-1</v>
@@ -10534,16 +10534,16 @@
         <v>-1</v>
       </c>
       <c r="N180" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O180" t="n">
         <v>1</v>
       </c>
       <c r="P180" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q180" t="n">
-        <v>-720.5</v>
+        <v>-722.5</v>
       </c>
       <c r="R180" t="n">
         <v>1</v>
@@ -10554,10 +10554,10 @@
         <v>-1</v>
       </c>
       <c r="B181" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
         <v>-1</v>
@@ -10566,7 +10566,7 @@
         <v>-1</v>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G181" t="n">
         <v>-1</v>
@@ -10584,13 +10584,13 @@
         <v>-1</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M181" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N181" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O181" t="n">
         <v>-1</v>
@@ -10613,7 +10613,7 @@
         <v>-1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D182" t="n">
         <v>-1</v>
@@ -10634,10 +10634,10 @@
         <v>-1</v>
       </c>
       <c r="J182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K182" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L182" t="n">
         <v>-1</v>
@@ -10649,13 +10649,13 @@
         <v>-1</v>
       </c>
       <c r="O182" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P182" t="n">
         <v>0</v>
       </c>
       <c r="Q182" t="n">
-        <v>-719.5</v>
+        <v>-718.5</v>
       </c>
       <c r="R182" t="n">
         <v>1</v>
@@ -10669,13 +10669,13 @@
         <v>-1</v>
       </c>
       <c r="C183" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F183" t="n">
         <v>-1</v>
@@ -10687,7 +10687,7 @@
         <v>-1</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J183" t="n">
         <v>-1</v>
@@ -10699,22 +10699,22 @@
         <v>-1</v>
       </c>
       <c r="M183" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N183" t="n">
         <v>-1</v>
       </c>
       <c r="O183" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P183" t="n">
         <v>0</v>
       </c>
       <c r="Q183" t="n">
-        <v>-719.5</v>
+        <v>-718.5</v>
       </c>
       <c r="R183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -10728,7 +10728,7 @@
         <v>-1</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E184" t="n">
         <v>-1</v>
@@ -10752,22 +10752,22 @@
         <v>-1</v>
       </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M184" t="n">
         <v>-1</v>
       </c>
       <c r="N184" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O184" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P184" t="n">
         <v>0</v>
       </c>
       <c r="Q184" t="n">
-        <v>-719.5</v>
+        <v>-718.5</v>
       </c>
       <c r="R184" t="n">
         <v>1</v>
@@ -10784,7 +10784,7 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E185" t="n">
         <v>-1</v>
@@ -10796,7 +10796,7 @@
         <v>-1</v>
       </c>
       <c r="H185" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>-1</v>
@@ -10805,7 +10805,7 @@
         <v>-1</v>
       </c>
       <c r="K185" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L185" t="n">
         <v>-1</v>
@@ -10823,7 +10823,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q185" t="n">
-        <v>-718.5</v>
+        <v>-767.5</v>
       </c>
       <c r="R185" t="n">
         <v>1</v>
@@ -10834,7 +10834,7 @@
         <v>-1</v>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C186" t="n">
         <v>-1</v>
@@ -10846,13 +10846,13 @@
         <v>-1</v>
       </c>
       <c r="F186" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G186" t="n">
         <v>-1</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I186" t="n">
         <v>-1</v>
@@ -10861,13 +10861,13 @@
         <v>-1</v>
       </c>
       <c r="K186" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L186" t="n">
         <v>-1</v>
       </c>
       <c r="M186" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N186" t="n">
         <v>-1</v>
@@ -10876,10 +10876,10 @@
         <v>-1</v>
       </c>
       <c r="P186" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q186" t="n">
-        <v>-767.5</v>
+        <v>-717.5</v>
       </c>
       <c r="R186" t="n">
         <v>1</v>
@@ -10890,10 +10890,10 @@
         <v>-1</v>
       </c>
       <c r="B187" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
         <v>-1</v>
@@ -10902,7 +10902,7 @@
         <v>-1</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G187" t="n">
         <v>-1</v>
@@ -10926,7 +10926,7 @@
         <v>-1</v>
       </c>
       <c r="N187" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O187" t="n">
         <v>-1</v>
@@ -10935,10 +10935,10 @@
         <v>0</v>
       </c>
       <c r="Q187" t="n">
-        <v>-718.5</v>
+        <v>-717.5</v>
       </c>
       <c r="R187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -10946,10 +10946,10 @@
         <v>-1</v>
       </c>
       <c r="B188" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D188" t="n">
         <v>-1</v>
@@ -10991,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="Q188" t="n">
-        <v>-718.5</v>
+        <v>-717.5</v>
       </c>
       <c r="R188" t="n">
         <v>1</v>
@@ -11002,7 +11002,7 @@
         <v>-1</v>
       </c>
       <c r="B189" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>-1</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H189" t="n">
         <v>-1</v>
@@ -11032,22 +11032,22 @@
         <v>-1</v>
       </c>
       <c r="L189" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M189" t="n">
         <v>-1</v>
       </c>
       <c r="N189" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O189" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P189" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q189" t="n">
-        <v>-763.5</v>
+        <v>-716.5</v>
       </c>
       <c r="R189" t="n">
         <v>1</v>
@@ -11058,16 +11058,16 @@
         <v>-1</v>
       </c>
       <c r="B190" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
         <v>-1</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F190" t="n">
         <v>-1</v>
@@ -11082,10 +11082,10 @@
         <v>-1</v>
       </c>
       <c r="J190" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K190" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L190" t="n">
         <v>-1</v>
@@ -11094,7 +11094,7 @@
         <v>-1</v>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O190" t="n">
         <v>-1</v>
@@ -11103,10 +11103,10 @@
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>-717.5</v>
+        <v>-716.5</v>
       </c>
       <c r="R190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -11141,13 +11141,13 @@
         <v>-1</v>
       </c>
       <c r="K191" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
         <v>-1</v>
       </c>
       <c r="M191" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N191" t="n">
         <v>1</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>-717.5</v>
+        <v>-715.5</v>
       </c>
       <c r="R191" t="n">
         <v>1</v>
@@ -11167,10 +11167,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B192" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
         <v>-1</v>
@@ -11179,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F192" t="n">
         <v>-1</v>
@@ -11188,7 +11188,7 @@
         <v>-1</v>
       </c>
       <c r="H192" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>-1</v>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>-717.5</v>
+        <v>-715.5</v>
       </c>
       <c r="R192" t="n">
         <v>2</v>
@@ -11232,7 +11232,7 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E193" t="n">
         <v>-1</v>
@@ -11241,7 +11241,7 @@
         <v>-1</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H193" t="n">
         <v>-1</v>
@@ -11256,22 +11256,22 @@
         <v>-1</v>
       </c>
       <c r="L193" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M193" t="n">
         <v>-1</v>
       </c>
       <c r="N193" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O193" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P193" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q193" t="n">
-        <v>-767.5</v>
+        <v>-714.5</v>
       </c>
       <c r="R193" t="n">
         <v>1</v>
@@ -11285,7 +11285,7 @@
         <v>-1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D194" t="n">
         <v>-1</v>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H194" t="n">
         <v>-1</v>
@@ -11306,10 +11306,10 @@
         <v>-1</v>
       </c>
       <c r="J194" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L194" t="n">
         <v>-1</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>-716.5</v>
+        <v>-714.5</v>
       </c>
       <c r="R194" t="n">
         <v>1</v>
@@ -11341,13 +11341,13 @@
         <v>-1</v>
       </c>
       <c r="C195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
         <v>-1</v>
       </c>
       <c r="E195" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F195" t="n">
         <v>-1</v>
@@ -11356,13 +11356,13 @@
         <v>-1</v>
       </c>
       <c r="H195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>-1</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K195" t="n">
         <v>-1</v>
@@ -11374,19 +11374,19 @@
         <v>-1</v>
       </c>
       <c r="N195" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O195" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P195" t="n">
         <v>0</v>
       </c>
       <c r="Q195" t="n">
-        <v>-716.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -11412,7 +11412,7 @@
         <v>-1</v>
       </c>
       <c r="H196" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>-1</v>
@@ -11421,25 +11421,25 @@
         <v>-1</v>
       </c>
       <c r="K196" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L196" t="n">
         <v>-1</v>
       </c>
       <c r="M196" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N196" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O196" t="n">
         <v>-1</v>
       </c>
       <c r="P196" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q196" t="n">
-        <v>-715.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R196" t="n">
         <v>1</v>
@@ -11456,7 +11456,7 @@
         <v>-1</v>
       </c>
       <c r="D197" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
         <v>-1</v>
@@ -11465,7 +11465,7 @@
         <v>-1</v>
       </c>
       <c r="G197" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>-1</v>
       </c>
       <c r="K197" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L197" t="n">
         <v>-1</v>
@@ -11489,13 +11489,13 @@
         <v>-1</v>
       </c>
       <c r="O197" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P197" t="n">
         <v>0</v>
       </c>
       <c r="Q197" t="n">
-        <v>-715.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R197" t="n">
         <v>1</v>
@@ -11509,7 +11509,7 @@
         <v>-1</v>
       </c>
       <c r="C198" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>-1</v>
@@ -11518,19 +11518,19 @@
         <v>-1</v>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G198" t="n">
         <v>-1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I198" t="n">
         <v>-1</v>
       </c>
       <c r="J198" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K198" t="n">
         <v>-1</v>
@@ -11539,10 +11539,10 @@
         <v>-1</v>
       </c>
       <c r="M198" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O198" t="n">
         <v>-1</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="Q198" t="n">
-        <v>-715.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R198" t="n">
         <v>1</v>
@@ -11562,13 +11562,13 @@
         <v>-1</v>
       </c>
       <c r="B199" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E199" t="n">
         <v>-1</v>
@@ -11577,13 +11577,13 @@
         <v>-1</v>
       </c>
       <c r="G199" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H199" t="n">
         <v>-1</v>
       </c>
       <c r="I199" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>-1</v>
@@ -11601,13 +11601,13 @@
         <v>-1</v>
       </c>
       <c r="O199" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P199" t="n">
         <v>0</v>
       </c>
       <c r="Q199" t="n">
-        <v>-714.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R199" t="n">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>-1</v>
       </c>
       <c r="B200" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
         <v>-1</v>
@@ -11630,10 +11630,10 @@
         <v>-1</v>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H200" t="n">
         <v>-1</v>
@@ -11645,28 +11645,28 @@
         <v>-1</v>
       </c>
       <c r="K200" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
         <v>-1</v>
       </c>
       <c r="M200" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N200" t="n">
         <v>-1</v>
       </c>
       <c r="O200" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P200" t="n">
         <v>0</v>
       </c>
       <c r="Q200" t="n">
-        <v>-714.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -11692,13 +11692,13 @@
         <v>-1</v>
       </c>
       <c r="H201" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>-1</v>
       </c>
       <c r="J201" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K201" t="n">
         <v>-1</v>
@@ -11719,10 +11719,10 @@
         <v>0</v>
       </c>
       <c r="Q201" t="n">
-        <v>-714.5</v>
+        <v>-712.5</v>
       </c>
       <c r="R201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -11739,7 +11739,7 @@
         <v>-1</v>
       </c>
       <c r="E202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
         <v>-1</v>
@@ -11751,7 +11751,7 @@
         <v>-1</v>
       </c>
       <c r="I202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J202" t="n">
         <v>-1</v>
@@ -11760,7 +11760,7 @@
         <v>-1</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M202" t="n">
         <v>-1</v>
@@ -11769,13 +11769,13 @@
         <v>1</v>
       </c>
       <c r="O202" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P202" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q202" t="n">
-        <v>-714.5</v>
+        <v>-715.5</v>
       </c>
       <c r="R202" t="n">
         <v>1</v>
@@ -11783,13 +11783,13 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B203" t="n">
         <v>-1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D203" t="n">
         <v>-1</v>
@@ -11801,10 +11801,10 @@
         <v>-1</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>-1</v>
@@ -11822,19 +11822,19 @@
         <v>-1</v>
       </c>
       <c r="N203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O203" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P203" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q203" t="n">
-        <v>-703.5</v>
+        <v>-710.5</v>
       </c>
       <c r="R203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -11848,13 +11848,13 @@
         <v>-1</v>
       </c>
       <c r="D204" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E204" t="n">
         <v>-1</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G204" t="n">
         <v>-1</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="Q204" t="n">
-        <v>-713.5</v>
+        <v>-711.5</v>
       </c>
       <c r="R204" t="n">
         <v>1</v>
@@ -11898,10 +11898,10 @@
         <v>-1</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C205" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D205" t="n">
         <v>-1</v>
@@ -11916,10 +11916,10 @@
         <v>-1</v>
       </c>
       <c r="H205" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J205" t="n">
         <v>-1</v>
@@ -11931,19 +11931,19 @@
         <v>-1</v>
       </c>
       <c r="M205" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N205" t="n">
         <v>-1</v>
       </c>
       <c r="O205" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P205" t="n">
         <v>0</v>
       </c>
       <c r="Q205" t="n">
-        <v>-713.5</v>
+        <v>-711.5</v>
       </c>
       <c r="R205" t="n">
         <v>1</v>
@@ -11951,7 +11951,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B206" t="n">
         <v>-1</v>
@@ -11963,13 +11963,13 @@
         <v>-1</v>
       </c>
       <c r="E206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H206" t="n">
         <v>-1</v>
@@ -11990,16 +11990,16 @@
         <v>-1</v>
       </c>
       <c r="N206" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O206" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P206" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q206" t="n">
-        <v>-713.5</v>
+        <v>-714.5</v>
       </c>
       <c r="R206" t="n">
         <v>1</v>
@@ -12013,7 +12013,7 @@
         <v>-1</v>
       </c>
       <c r="C207" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>-1</v>
@@ -12025,7 +12025,7 @@
         <v>-1</v>
       </c>
       <c r="G207" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>-1</v>
@@ -12040,22 +12040,22 @@
         <v>-1</v>
       </c>
       <c r="L207" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M207" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N207" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O207" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P207" t="n">
         <v>0</v>
       </c>
       <c r="Q207" t="n">
-        <v>-713.5</v>
+        <v>-710.5</v>
       </c>
       <c r="R207" t="n">
         <v>1</v>
@@ -12072,19 +12072,19 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
         <v>-1</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H208" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>-1</v>
@@ -12093,13 +12093,13 @@
         <v>-1</v>
       </c>
       <c r="K208" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L208" t="n">
         <v>-1</v>
       </c>
       <c r="M208" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N208" t="n">
         <v>-1</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="Q208" t="n">
-        <v>-712.5</v>
+        <v>-710.5</v>
       </c>
       <c r="R208" t="n">
         <v>1</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B209" t="n">
         <v>-1</v>
@@ -12137,7 +12137,7 @@
         <v>-1</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H209" t="n">
         <v>-1</v>
@@ -12149,7 +12149,7 @@
         <v>-1</v>
       </c>
       <c r="K209" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
         <v>-1</v>
@@ -12158,7 +12158,7 @@
         <v>-1</v>
       </c>
       <c r="N209" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O209" t="n">
         <v>-1</v>
@@ -12167,10 +12167,10 @@
         <v>0</v>
       </c>
       <c r="Q209" t="n">
-        <v>-712.5</v>
+        <v>-710.5</v>
       </c>
       <c r="R209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -12193,10 +12193,10 @@
         <v>-1</v>
       </c>
       <c r="G210" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I210" t="n">
         <v>-1</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Q210" t="n">
-        <v>-712.5</v>
+        <v>-710.5</v>
       </c>
       <c r="R210" t="n">
         <v>1</v>
@@ -12240,7 +12240,7 @@
         <v>-1</v>
       </c>
       <c r="D211" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
         <v>-1</v>
@@ -12249,7 +12249,7 @@
         <v>-1</v>
       </c>
       <c r="G211" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>-1</v>
@@ -12264,25 +12264,25 @@
         <v>-1</v>
       </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M211" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O211" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P211" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q211" t="n">
         <v>-712.5</v>
       </c>
       <c r="R211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -12308,16 +12308,16 @@
         <v>-1</v>
       </c>
       <c r="H212" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>-1</v>
       </c>
       <c r="J212" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K212" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L212" t="n">
         <v>-1</v>
@@ -12326,16 +12326,16 @@
         <v>-1</v>
       </c>
       <c r="N212" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O212" t="n">
         <v>1</v>
       </c>
       <c r="P212" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q212" t="n">
-        <v>-712.5</v>
+        <v>-707.5</v>
       </c>
       <c r="R212" t="n">
         <v>1</v>
@@ -12346,7 +12346,7 @@
         <v>-1</v>
       </c>
       <c r="B213" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
         <v>-1</v>
@@ -12358,22 +12358,22 @@
         <v>-1</v>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G213" t="n">
         <v>-1</v>
       </c>
       <c r="H213" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K213" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L213" t="n">
         <v>-1</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="Q213" t="n">
-        <v>-712.5</v>
+        <v>-708.5</v>
       </c>
       <c r="R213" t="n">
         <v>1</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B214" t="n">
         <v>-1</v>
@@ -12411,16 +12411,16 @@
         <v>-1</v>
       </c>
       <c r="E214" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H214" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>-1</v>
@@ -12432,7 +12432,7 @@
         <v>-1</v>
       </c>
       <c r="L214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M214" t="n">
         <v>-1</v>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="Q214" t="n">
-        <v>-711.5</v>
+        <v>-707.5</v>
       </c>
       <c r="R214" t="n">
         <v>1</v>
@@ -12467,7 +12467,7 @@
         <v>-1</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F215" t="n">
         <v>-1</v>
@@ -12476,7 +12476,7 @@
         <v>-1</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I215" t="n">
         <v>-1</v>
@@ -12485,25 +12485,25 @@
         <v>-1</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L215" t="n">
         <v>-1</v>
       </c>
       <c r="M215" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N215" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O215" t="n">
         <v>-1</v>
       </c>
       <c r="P215" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q215" t="n">
-        <v>-711.5</v>
+        <v>-770.5</v>
       </c>
       <c r="R215" t="n">
         <v>1</v>
@@ -12514,10 +12514,10 @@
         <v>-1</v>
       </c>
       <c r="B216" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D216" t="n">
         <v>-1</v>
@@ -12529,7 +12529,7 @@
         <v>-1</v>
       </c>
       <c r="G216" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>1</v>
@@ -12547,7 +12547,7 @@
         <v>-1</v>
       </c>
       <c r="M216" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N216" t="n">
         <v>-1</v>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
       <c r="Q216" t="n">
-        <v>-711.5</v>
+        <v>-703.5</v>
       </c>
       <c r="R216" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>-1</v>
       </c>
       <c r="C217" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>-1</v>
@@ -12582,7 +12582,7 @@
         <v>-1</v>
       </c>
       <c r="F217" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G217" t="n">
         <v>-1</v>
@@ -12594,7 +12594,7 @@
         <v>-1</v>
       </c>
       <c r="J217" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K217" t="n">
         <v>-1</v>
@@ -12603,19 +12603,19 @@
         <v>-1</v>
       </c>
       <c r="M217" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N217" t="n">
         <v>-1</v>
       </c>
       <c r="O217" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P217" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q217" t="n">
-        <v>-711.5</v>
+        <v>-780.5</v>
       </c>
       <c r="R217" t="n">
         <v>1</v>
@@ -12626,7 +12626,7 @@
         <v>-1</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C218" t="n">
         <v>-1</v>
@@ -12641,13 +12641,13 @@
         <v>-1</v>
       </c>
       <c r="G218" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J218" t="n">
         <v>-1</v>
@@ -12662,16 +12662,16 @@
         <v>-1</v>
       </c>
       <c r="N218" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O218" t="n">
         <v>-1</v>
       </c>
       <c r="P218" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>-768.5</v>
+        <v>-701.5</v>
       </c>
       <c r="R218" t="n">
         <v>1</v>
@@ -12685,7 +12685,7 @@
         <v>-1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="n">
         <v>-1</v>
@@ -12697,7 +12697,7 @@
         <v>-1</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H219" t="n">
         <v>-1</v>
@@ -12712,7 +12712,7 @@
         <v>-1</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M219" t="n">
         <v>-1</v>
@@ -12721,13 +12721,13 @@
         <v>-1</v>
       </c>
       <c r="O219" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P219" t="n">
         <v>0.06666666666666667</v>
       </c>
       <c r="Q219" t="n">
-        <v>-708.5</v>
+        <v>-796.5</v>
       </c>
       <c r="R219" t="n">
         <v>1</v>
@@ -12735,10 +12735,10 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B220" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>-1</v>
@@ -12750,10 +12750,10 @@
         <v>-1</v>
       </c>
       <c r="F220" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H220" t="n">
         <v>-1</v>
@@ -12765,7 +12765,7 @@
         <v>-1</v>
       </c>
       <c r="K220" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L220" t="n">
         <v>-1</v>
@@ -12783,7 +12783,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="Q220" t="n">
-        <v>-756.5</v>
+        <v>-720.5</v>
       </c>
       <c r="R220" t="n">
         <v>1</v>
@@ -12794,10 +12794,10 @@
         <v>-1</v>
       </c>
       <c r="B221" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D221" t="n">
         <v>-1</v>
@@ -12809,13 +12809,13 @@
         <v>-1</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H221" t="n">
         <v>-1</v>
       </c>
       <c r="I221" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
         <v>-1</v>
@@ -12830,16 +12830,16 @@
         <v>-1</v>
       </c>
       <c r="N221" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O221" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P221" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q221" t="n">
-        <v>-710.5</v>
+        <v>-713.5</v>
       </c>
       <c r="R221" t="n">
         <v>1</v>
@@ -12856,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
         <v>-1</v>
@@ -12868,7 +12868,7 @@
         <v>-1</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I222" t="n">
         <v>-1</v>
@@ -12880,7 +12880,7 @@
         <v>-1</v>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M222" t="n">
         <v>-1</v>
@@ -12892,13 +12892,13 @@
         <v>-1</v>
       </c>
       <c r="P222" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q222" t="n">
-        <v>-710.5</v>
+        <v>-778.5</v>
       </c>
       <c r="R222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -12909,7 +12909,7 @@
         <v>-1</v>
       </c>
       <c r="C223" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D223" t="n">
         <v>-1</v>
@@ -12918,7 +12918,7 @@
         <v>-1</v>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G223" t="n">
         <v>-1</v>
@@ -12942,16 +12942,16 @@
         <v>-1</v>
       </c>
       <c r="N223" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O223" t="n">
         <v>-1</v>
       </c>
       <c r="P223" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="Q223" t="n">
-        <v>-801.5</v>
+        <v>-774.5</v>
       </c>
       <c r="R223" t="n">
         <v>1</v>
@@ -12959,22 +12959,22 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C224" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E224" t="n">
         <v>-1</v>
       </c>
       <c r="F224" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
         <v>-1</v>
@@ -12995,7 +12995,7 @@
         <v>-1</v>
       </c>
       <c r="M224" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N224" t="n">
         <v>-1</v>
@@ -13004,1580 +13004,12 @@
         <v>-1</v>
       </c>
       <c r="P224" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q224" t="n">
-        <v>-709.5</v>
+        <v>-728.5</v>
       </c>
       <c r="R224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G225" t="n">
-        <v>1</v>
-      </c>
-      <c r="H225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N225" t="n">
-        <v>1</v>
-      </c>
-      <c r="O225" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P225" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q225" t="n">
-        <v>-709.5</v>
-      </c>
-      <c r="R225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="n">
-        <v>1</v>
-      </c>
-      <c r="O226" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P226" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q226" t="n">
-        <v>-709.5</v>
-      </c>
-      <c r="R226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>1</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M227" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N227" t="n">
-        <v>1</v>
-      </c>
-      <c r="O227" t="n">
-        <v>1</v>
-      </c>
-      <c r="P227" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q227" t="n">
-        <v>-709.5</v>
-      </c>
-      <c r="R227" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>1</v>
-      </c>
-      <c r="B228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E228" t="n">
-        <v>1</v>
-      </c>
-      <c r="F228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J228" t="n">
-        <v>1</v>
-      </c>
-      <c r="K228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O228" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P228" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q228" t="n">
-        <v>-709.5</v>
-      </c>
-      <c r="R228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G229" t="n">
-        <v>1</v>
-      </c>
-      <c r="H229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M229" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N229" t="n">
-        <v>1</v>
-      </c>
-      <c r="O229" t="n">
-        <v>1</v>
-      </c>
-      <c r="P229" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q229" t="n">
-        <v>-708.5</v>
-      </c>
-      <c r="R229" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O230" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P230" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q230" t="n">
-        <v>-774.5</v>
-      </c>
-      <c r="R230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E231" t="n">
-        <v>1</v>
-      </c>
-      <c r="F231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G231" t="n">
-        <v>1</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O231" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P231" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q231" t="n">
-        <v>-706.5</v>
-      </c>
-      <c r="R231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D232" t="n">
-        <v>1</v>
-      </c>
-      <c r="E232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G232" t="n">
-        <v>1</v>
-      </c>
-      <c r="H232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O232" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P232" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q232" t="n">
-        <v>-767.5</v>
-      </c>
-      <c r="R232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K233" t="n">
-        <v>1</v>
-      </c>
-      <c r="L233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O233" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q233" t="n">
-        <v>-705.5</v>
-      </c>
-      <c r="R233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1</v>
-      </c>
-      <c r="D234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G234" t="n">
-        <v>1</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O234" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P234" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>-704.5</v>
-      </c>
-      <c r="R234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B235" t="n">
-        <v>1</v>
-      </c>
-      <c r="C235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D235" t="n">
-        <v>1</v>
-      </c>
-      <c r="E235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O235" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P235" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q235" t="n">
-        <v>-777.5</v>
-      </c>
-      <c r="R235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G236" t="n">
-        <v>1</v>
-      </c>
-      <c r="H236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O236" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P236" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>-762.5</v>
-      </c>
-      <c r="R236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
-      <c r="J237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O237" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P237" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>-790.5</v>
-      </c>
-      <c r="R237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>1</v>
-      </c>
-      <c r="B238" t="n">
-        <v>1</v>
-      </c>
-      <c r="C238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O238" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P238" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q238" t="n">
-        <v>-704.5</v>
-      </c>
-      <c r="R238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>1</v>
-      </c>
-      <c r="E239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O239" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P239" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q239" t="n">
-        <v>-781.5</v>
-      </c>
-      <c r="R239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>1</v>
-      </c>
-      <c r="B240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G240" t="n">
-        <v>1</v>
-      </c>
-      <c r="H240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J240" t="n">
-        <v>1</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O240" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P240" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>-696.5</v>
-      </c>
-      <c r="R240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G241" t="n">
-        <v>1</v>
-      </c>
-      <c r="H241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
-      <c r="J241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O241" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P241" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q241" t="n">
-        <v>-758.5</v>
-      </c>
-      <c r="R241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B242" t="n">
-        <v>1</v>
-      </c>
-      <c r="C242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O242" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P242" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q242" t="n">
-        <v>-797.5</v>
-      </c>
-      <c r="R242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B243" t="n">
-        <v>1</v>
-      </c>
-      <c r="C243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F243" t="n">
-        <v>1</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>1</v>
-      </c>
-      <c r="K243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O243" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P243" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q243" t="n">
-        <v>-719.5</v>
-      </c>
-      <c r="R243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F244" t="n">
-        <v>1</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J244" t="n">
-        <v>1</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O244" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q244" t="n">
-        <v>-773.5</v>
-      </c>
-      <c r="R244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B245" t="n">
-        <v>1</v>
-      </c>
-      <c r="C245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E245" t="n">
-        <v>1</v>
-      </c>
-      <c r="F245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
-      <c r="J245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O245" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q245" t="n">
-        <v>-717.5</v>
-      </c>
-      <c r="R245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>1</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E246" t="n">
-        <v>1</v>
-      </c>
-      <c r="F246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N246" t="n">
-        <v>1</v>
-      </c>
-      <c r="O246" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P246" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q246" t="n">
-        <v>-713.5</v>
-      </c>
-      <c r="R246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
-      <c r="J247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O247" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P247" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q247" t="n">
-        <v>-710.5</v>
-      </c>
-      <c r="R247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>1</v>
-      </c>
-      <c r="B248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E248" t="n">
-        <v>1</v>
-      </c>
-      <c r="F248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O248" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P248" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="Q248" t="n">
-        <v>-626.5</v>
-      </c>
-      <c r="R248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E249" t="n">
-        <v>1</v>
-      </c>
-      <c r="F249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O249" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P249" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q249" t="n">
-        <v>-779.5</v>
-      </c>
-      <c r="R249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>1</v>
-      </c>
-      <c r="B250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O250" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P250" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q250" t="n">
-        <v>-770.5</v>
-      </c>
-      <c r="R250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N251" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O251" t="n">
-        <v>1</v>
-      </c>
-      <c r="P251" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>-766.5</v>
-      </c>
-      <c r="R251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D252" t="n">
-        <v>1</v>
-      </c>
-      <c r="E252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O252" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P252" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>-708.5</v>
-      </c>
-      <c r="R252" t="n">
         <v>1</v>
       </c>
     </row>
